--- a/biology/Zoologie/Cheval_(nom_vernaculaire)/Cheval_(nom_vernaculaire).xlsx
+++ b/biology/Zoologie/Cheval_(nom_vernaculaire)/Cheval_(nom_vernaculaire).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cheval /ʃəval/ est un nom qui, dans le vocabulaire courant du français, fait très généralement référence au cheval domestique (Equus ferus caballus). Il ne correspond cependant pas à un niveau précis de la classification scientifique des espèces. Il s'agit d'un nom vernaculaire ambigu, désignant plusieurs espèces et sous-espèces de grands mammifères herbivores de la famille des équidés. Le statut d'espèce à part entière, ou de sous-espèce d'Equus ferus pour le cheval domestique, reste par ailleurs discuté.
 Hormis le cheval domestique, des espèces et sous-espèces distinctes sont désignées par ce même nom, dont le cheval de Przewalski (Equus ferus przewalskii) et le Tarpan (Equus ferus ferus), deux sous-espèces d'Equus ferus, le cheval sauvage. Plusieurs équidés préhistoriques dont le statut reste à clarifier portent eux aussi des noms vernaculaires comportant le terme « cheval », dont le cheval du Yukon (Equus lambei). Il y a aussi des postulats de taxons désormais obsolètes, comme le cheval des forêts (Equus caballus germanicus ou Equus ferus ferus silvaticus), et le « cheval de Solutré ».
@@ -512,10 +524,12 @@
           <t>Étymologie et histoire du terme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">« Cheval » (/ʃəval/, pluriel « chevaux » /ʃəvo/) est un terme générique qui désigne en premier lieu l'espèce ou sous-espèce domestique[1], ce qui inclut les populations redevenues sauvages comme les mustangs. 
-Le cheval de Przewalski et le Tarpan appartiennent à une autre espèce ou sous-espèce, mais sont eux aussi désignés comme des « chevaux »[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« Cheval » (/ʃəval/, pluriel « chevaux » /ʃəvo/) est un terme générique qui désigne en premier lieu l'espèce ou sous-espèce domestique, ce qui inclut les populations redevenues sauvages comme les mustangs. 
+Le cheval de Przewalski et le Tarpan appartiennent à une autre espèce ou sous-espèce, mais sont eux aussi désignés comme des « chevaux ».
 </t>
         </is>
       </c>
